--- a/document/村镇柜面通接口-村镇.xlsx
+++ b/document/村镇柜面通接口-村镇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
   <si>
     <t>修订日期</t>
   </si>
@@ -820,21 +820,60 @@
     <t>对账文件名</t>
   </si>
   <si>
+    <t>COLLECT_DT</t>
+  </si>
+  <si>
+    <t>对账日期</t>
+  </si>
+  <si>
     <t>文件内容</t>
   </si>
   <si>
+    <t>汇总行</t>
+  </si>
+  <si>
+    <t>一共四行（来账通存、来账通兑、往账通存、往账通兑）</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>交易类型</t>
+  </si>
+  <si>
+    <t>string(2)</t>
+  </si>
+  <si>
+    <t>来账通存I0、来账通兑I1、      往账通存O0、往账通兑O1     （第一位是大写字母，I代表来账、O代表往账；第二位是数字，0代表通存、1代表通兑）</t>
+  </si>
+  <si>
+    <t>TOTAL_SUM</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>明细行</t>
+  </si>
+  <si>
     <t>DCFLAG</t>
   </si>
   <si>
     <t>通存通兑标志</t>
   </si>
   <si>
+    <t>0通存、1通兑</t>
+  </si>
+  <si>
     <t>SRFLAG</t>
   </si>
   <si>
     <t>来往账标志</t>
   </si>
   <si>
+    <t>I来账、O往账</t>
+  </si>
+  <si>
     <t>CHNL</t>
   </si>
   <si>
@@ -851,6 +890,9 @@
   </si>
   <si>
     <t>现转标志</t>
+  </si>
+  <si>
+    <t>0现金、1转账</t>
   </si>
   <si>
     <t>PAYEE_ACNO</t>
@@ -998,6 +1040,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1006,6 +1101,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1021,22 +1140,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,88 +1161,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1151,6 +1182,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1198,7 +1240,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,43 +1360,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,115 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,8 +1418,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1512,6 +1554,43 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1553,17 +1632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1575,6 +1643,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,6 +1680,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1620,24 +1712,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,157 +1735,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1857,12 +1936,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,7 +1979,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1909,13 +2013,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2356,58 +2460,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="64" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2474,10 +2578,10 @@
       <c r="B4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -2610,20 +2714,20 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2698,10 +2802,10 @@
       <c r="B4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -2794,20 +2898,20 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="D11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2831,8 +2935,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2873,10 +2977,10 @@
       <c r="B3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -2885,10 +2989,10 @@
       <c r="B4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -2946,7 +3050,7 @@
       <c r="E8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3202,15 +3306,15 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
@@ -3319,105 +3423,109 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" s="17" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A11" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" ht="56" customHeight="1" spans="1:6">
+      <c r="A12" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="A14" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
@@ -3428,10 +3536,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="16" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
@@ -3441,47 +3549,43 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>169</v>
+      <c r="A18" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>169</v>
+      <c r="A19" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
@@ -3492,10 +3596,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="16" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
@@ -3506,10 +3610,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="16" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
@@ -3520,71 +3624,168 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="16" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="1:6">
-      <c r="A24" s="18" t="s">
+      <c r="F23" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" s="18" customFormat="1" spans="1:6">
+      <c r="A30" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B30" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C30" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="D30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="16" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B31" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3612,7 +3813,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3634,7 +3835,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3646,7 +3847,7 @@
         <v>164</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3695,10 +3896,10 @@
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>122</v>
@@ -3708,7 +3909,7 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3723,10 +3924,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>184</v>
@@ -3741,10 +3942,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>184</v>
@@ -3785,1420 +3986,1420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="42" t="s">
+      <c r="F9" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="42" t="s">
+      <c r="F10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="42" t="s">
+      <c r="F11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:7">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="42" t="s">
+      <c r="F14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="42" t="s">
+      <c r="F16" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="42" t="s">
+      <c r="F17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" ht="42.75" spans="1:7">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="51" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:7">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:7">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:7">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:7">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:7">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:7">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:7">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:7">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:7">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="55" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:7">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="55" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" ht="28.5" spans="1:7">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="55" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" ht="28.5" spans="1:7">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="53" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" ht="28.5" spans="1:7">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="55" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:7">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="55" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:7">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47" t="s">
+      <c r="E34" s="56"/>
+      <c r="F34" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="56" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:7">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="42" t="s">
+      <c r="F35" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="51" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="48" t="s">
+      <c r="F36" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="57" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" ht="28.5" spans="1:7">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="42" t="s">
+      <c r="F37" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="38" ht="28.5" spans="1:7">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="48" t="s">
+      <c r="F39" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="42" t="s">
+      <c r="F40" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:7">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="42" t="s">
+      <c r="F41" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:7">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="42" t="s">
+      <c r="F42" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="51" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:7">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="51" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:7">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="42" t="s">
+      <c r="F44" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="51" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" ht="28.5" spans="1:7">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="42" t="s">
+      <c r="F45" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="51" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:7">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="42" t="s">
+      <c r="F46" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="51" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="42" t="s">
+      <c r="F47" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="51" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" ht="28.5" spans="1:7">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="42" t="s">
+      <c r="F48" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" ht="42.75" spans="1:7">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="51" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" ht="28.5" spans="1:7">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="51" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" ht="28.5" spans="1:7">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="52" ht="28.5" spans="1:7">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="44" t="s">
+      <c r="D52" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" ht="28.5" spans="1:7">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="51" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" ht="28.5" spans="1:7">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:7">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" ht="28.5" spans="1:7">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="F56" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:7">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:7">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="51" t="s">
+      <c r="G58" s="60" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" ht="28.5" spans="1:7">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D59" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="51" t="s">
+      <c r="F59" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:7">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="53" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="1:7">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="44" t="s">
+      <c r="G61" s="53" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="1:7">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="46"/>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" ht="28.5" spans="1:7">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="46"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" ht="28.5" spans="1:7">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="44" t="s">
+      <c r="F64" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G64" s="44" t="s">
+      <c r="G64" s="53" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5706,10 +5907,10 @@
       <c r="B3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -5718,10 +5919,10 @@
       <c r="B4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -5754,32 +5955,32 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5823,7 +6024,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" s="25" customFormat="1" spans="1:6">
+    <row r="11" s="34" customFormat="1" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>176</v>
       </c>
@@ -5839,9 +6040,9 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" s="25" customFormat="1" spans="1:6">
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" s="34" customFormat="1" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>179</v>
       </c>
@@ -5857,7 +6058,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" s="25" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
+    <row r="13" s="34" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>182</v>
       </c>
@@ -5873,49 +6074,49 @@
       <c r="E13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="30" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="26"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
@@ -6039,10 +6240,10 @@
       <c r="B3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -6051,10 +6252,10 @@
       <c r="B4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -6096,23 +6297,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="18" customFormat="1" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6172,7 +6373,7 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
@@ -6206,10 +6407,10 @@
       <c r="E13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -6224,13 +6425,13 @@
       <c r="E14" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" ht="56.25" spans="1:6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="30" t="s">
         <v>207</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -6239,16 +6440,16 @@
       <c r="D15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="30" t="s">
         <v>211</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -6257,24 +6458,24 @@
       <c r="D16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="30" t="s">
         <v>186</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
@@ -6287,20 +6488,20 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
@@ -6434,10 +6635,10 @@
       <c r="B4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -6570,20 +6771,20 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6658,10 +6859,10 @@
       <c r="B4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -6754,20 +6955,20 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="D11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6889,23 +7090,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="18" customFormat="1" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7062,10 +7263,10 @@
       <c r="B3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -7074,10 +7275,10 @@
       <c r="B4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -7119,23 +7320,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" s="17" customFormat="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="18" customFormat="1" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7155,7 +7356,7 @@
       <c r="E9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
@@ -7189,39 +7390,39 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>186</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
       <c r="A14" s="13" t="s">
@@ -7314,20 +7515,20 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7392,10 +7593,10 @@
       <c r="B3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -7404,10 +7605,10 @@
       <c r="B4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -7440,32 +7641,32 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:6">
-      <c r="A8" s="18" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:6">
+      <c r="A8" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7485,7 +7686,7 @@
       <c r="E9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
@@ -7519,10 +7720,10 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -7537,13 +7738,13 @@
       <c r="E12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="45" spans="1:6">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="30" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -7552,16 +7753,16 @@
       <c r="D13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="30" t="s">
         <v>211</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -7570,40 +7771,40 @@
       <c r="D14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="30" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="30" t="s">
         <v>189</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
@@ -7696,20 +7897,20 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="30" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
+      <c r="D22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30" t="s">
         <v>218</v>
       </c>
     </row>

--- a/document/村镇柜面通接口-村镇.xlsx
+++ b/document/村镇柜面通接口-村镇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="6" activeTab="13"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -907,7 +907,7 @@
     <t>付款人户名</t>
   </si>
   <si>
-    <t>村镇通兑快捷查询账户信息（KEY001）</t>
+    <t>工作密钥更新（KEY001）</t>
   </si>
   <si>
     <t>工作密钥更新申请</t>
@@ -942,10 +942,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1041,13 +1041,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1056,6 +1049,131 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,128 +1189,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1240,7 +1240,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,19 +1372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,55 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,91 +1414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,17 +1632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,7 +1645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,30 +1661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,6 +1682,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1721,11 +1715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,10 +1735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1747,145 +1747,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1935,7 +1935,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2460,58 +2459,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:4">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2578,10 +2577,10 @@
       <c r="B4" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -2714,20 +2713,20 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="D13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2802,10 +2801,10 @@
       <c r="B4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -2898,20 +2897,20 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2977,10 +2976,10 @@
       <c r="B3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -2989,10 +2988,10 @@
       <c r="B4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -3050,7 +3049,7 @@
       <c r="E8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3308,7 +3307,7 @@
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3423,102 +3422,102 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" s="17" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" ht="56" customHeight="1" spans="1:6">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
@@ -3730,23 +3729,23 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" s="18" customFormat="1" spans="1:6">
+    <row r="30" s="17" customFormat="1" spans="1:6">
       <c r="A30" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="28" t="s">
+      <c r="D30" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3797,8 +3796,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3986,1420 +3985,1420 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="1:7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="F7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:7">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:7">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="F12" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:7">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:7">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" ht="42.75" spans="1:7">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:7">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:7">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:7">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:7">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:7">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:7">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" ht="28.5" spans="1:7">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" ht="28.5" spans="1:7">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="54" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:7">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="54" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:7">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="54" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" ht="28.5" spans="1:7">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="54" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" ht="28.5" spans="1:7">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" ht="28.5" spans="1:7">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:7">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="54" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:7">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56" t="s">
+      <c r="E34" s="55"/>
+      <c r="F34" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:7">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="51" t="s">
+      <c r="F35" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="50" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:7">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="57" t="s">
+      <c r="F36" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="56" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" ht="28.5" spans="1:7">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="51" t="s">
+      <c r="F37" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="50" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="38" ht="28.5" spans="1:7">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="51" t="s">
+      <c r="F38" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="50" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:7">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="57" t="s">
+      <c r="F39" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="56" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="51" t="s">
+      <c r="F40" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:7">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="51" t="s">
+      <c r="F41" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:7">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="51" t="s">
+      <c r="F42" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="43" ht="28.5" spans="1:7">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="50" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:7">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="51" t="s">
+      <c r="F44" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="50" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" ht="28.5" spans="1:7">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="51" t="s">
+      <c r="F45" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="50" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:7">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="51" t="s">
+      <c r="F46" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="50" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:7">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="51" t="s">
+      <c r="D47" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="51" t="s">
+      <c r="F47" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" ht="28.5" spans="1:7">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="51" t="s">
+      <c r="F48" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="49" ht="42.75" spans="1:7">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="50" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" ht="28.5" spans="1:7">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="50" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" ht="28.5" spans="1:7">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="53" t="s">
+      <c r="F51" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="52" ht="28.5" spans="1:7">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="F52" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="51" t="s">
+      <c r="G52" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" ht="28.5" spans="1:7">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="50" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="54" ht="28.5" spans="1:7">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="55" ht="28.5" spans="1:7">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" ht="28.5" spans="1:7">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="51" t="s">
+      <c r="G56" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" ht="28.5" spans="1:7">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="54" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:7">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="60" t="s">
+      <c r="G58" s="59" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" ht="28.5" spans="1:7">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="D59" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G59" s="61" t="s">
+      <c r="G59" s="60" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="1:7">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G60" s="53" t="s">
+      <c r="G60" s="52" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="1:7">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="52" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="1:7">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="55"/>
+      <c r="G62" s="54"/>
     </row>
     <row r="63" ht="28.5" spans="1:7">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="53" t="s">
+      <c r="F63" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="55"/>
+      <c r="G63" s="54"/>
     </row>
     <row r="64" ht="28.5" spans="1:7">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="53" t="s">
+      <c r="F64" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G64" s="53" t="s">
+      <c r="G64" s="52" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5907,10 +5906,10 @@
       <c r="B3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -5919,10 +5918,10 @@
       <c r="B4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -5955,32 +5954,32 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" s="18" customFormat="1" spans="1:6">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6024,7 +6023,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" s="34" customFormat="1" spans="1:6">
+    <row r="11" s="33" customFormat="1" spans="1:6">
       <c r="A11" s="13" t="s">
         <v>176</v>
       </c>
@@ -6040,9 +6039,9 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" s="34" customFormat="1" spans="1:6">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" s="33" customFormat="1" spans="1:6">
       <c r="A12" s="13" t="s">
         <v>179</v>
       </c>
@@ -6058,7 +6057,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" s="34" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
+    <row r="13" s="33" customFormat="1" ht="23.1" customHeight="1" spans="1:6">
       <c r="A13" s="13" t="s">
         <v>182</v>
       </c>
@@ -6074,49 +6073,49 @@
       <c r="E13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
@@ -6240,10 +6239,10 @@
       <c r="B3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -6252,10 +6251,10 @@
       <c r="B4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -6297,23 +6296,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:6">
-      <c r="A8" s="19" t="s">
+    <row r="8" s="17" customFormat="1" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6373,7 +6372,7 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13" t="s">
@@ -6407,10 +6406,10 @@
       <c r="E13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>203</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -6425,13 +6424,13 @@
       <c r="E14" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" ht="56.25" spans="1:6">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>207</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -6440,16 +6439,16 @@
       <c r="D15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>211</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -6458,24 +6457,24 @@
       <c r="D16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>186</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
@@ -6488,20 +6487,20 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
+      <c r="D19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
@@ -6635,10 +6634,10 @@
       <c r="B4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -6771,20 +6770,20 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="D13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6859,10 +6858,10 @@
       <c r="B4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -6955,20 +6954,20 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>217</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7090,23 +7089,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:6">
-      <c r="A8" s="19" t="s">
+    <row r="8" s="17" customFormat="1" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7263,10 +7262,10 @@
       <c r="B3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -7275,10 +7274,10 @@
       <c r="B4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -7320,23 +7319,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:6">
-      <c r="A8" s="19" t="s">
+    <row r="8" s="17" customFormat="1" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7356,7 +7355,7 @@
       <c r="E9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
@@ -7390,39 +7389,39 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>186</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
       <c r="A14" s="13" t="s">
@@ -7515,20 +7514,20 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>217</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30" t="s">
+      <c r="D19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29" t="s">
         <v>218</v>
       </c>
     </row>
@@ -7593,10 +7592,10 @@
       <c r="B3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -7605,10 +7604,10 @@
       <c r="B4" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -7641,32 +7640,32 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" s="18" customFormat="1" spans="1:6">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:6">
+      <c r="A8" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7686,7 +7685,7 @@
       <c r="E9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
@@ -7720,10 +7719,10 @@
       <c r="E11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>203</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -7738,13 +7737,13 @@
       <c r="E12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" ht="45" spans="1:6">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>207</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -7753,16 +7752,16 @@
       <c r="D13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>211</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -7771,40 +7770,40 @@
       <c r="D14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>189</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
@@ -7897,20 +7896,20 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>217</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
+      <c r="D22" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29" t="s">
         <v>218</v>
       </c>
     </row>

--- a/document/村镇柜面通接口-村镇.xlsx
+++ b/document/村镇柜面通接口-村镇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
     <t>村镇通兑冲正</t>
   </si>
   <si>
-    <t>村镇通兑超时情况的冲正功能</t>
+    <t>村镇通兑村镇记账失败情况的冲正功能</t>
   </si>
   <si>
     <t>村镇头寸查询（TR0005）</t>
@@ -942,10 +942,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1040,8 +1040,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,35 +1076,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,14 +1097,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1120,52 +1116,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,18 +1164,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1240,19 +1240,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,79 +1306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,19 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,7 +1348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,37 +1390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,11 +1632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1665,6 +1671,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1683,23 +1698,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,10 +1735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1747,140 +1747,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2750,8 +2750,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3796,7 +3796,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
